--- a/Gantt Chart.xlsx
+++ b/Gantt Chart.xlsx
@@ -507,11 +507,11 @@
         </c:dLbls>
         <c:gapWidth val="150"/>
         <c:overlap val="100"/>
-        <c:axId val="84428672"/>
-        <c:axId val="78409728"/>
+        <c:axId val="75257344"/>
+        <c:axId val="75258880"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="84428672"/>
+        <c:axId val="75257344"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -520,7 +520,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="78409728"/>
+        <c:crossAx val="75258880"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -528,7 +528,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="78409728"/>
+        <c:axId val="75258880"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -539,7 +539,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="84428672"/>
+        <c:crossAx val="75257344"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -577,15 +577,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>628647</xdr:colOff>
-      <xdr:row>23</xdr:row>
-      <xdr:rowOff>161925</xdr:rowOff>
+      <xdr:colOff>771522</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>114301</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>15</xdr:col>
-      <xdr:colOff>152401</xdr:colOff>
-      <xdr:row>61</xdr:row>
-      <xdr:rowOff>76200</xdr:rowOff>
+      <xdr:colOff>295276</xdr:colOff>
+      <xdr:row>53</xdr:row>
+      <xdr:rowOff>28576</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -896,7 +896,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D17"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A21" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="40" zoomScaleNormal="40" workbookViewId="0">
       <selection activeCell="I13" sqref="I13"/>
     </sheetView>
   </sheetViews>

--- a/Gantt Chart.xlsx
+++ b/Gantt Chart.xlsx
@@ -365,22 +365,22 @@
                   <c:v>15</c:v>
                 </c:pt>
                 <c:pt idx="4">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>23</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>34</c:v>
+                </c:pt>
+                <c:pt idx="8">
                   <c:v>20</c:v>
                 </c:pt>
-                <c:pt idx="5">
-                  <c:v>20</c:v>
-                </c:pt>
-                <c:pt idx="6">
+                <c:pt idx="9">
                   <c:v>10</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>30</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>10</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="10">
                   <c:v>0</c:v>
@@ -470,22 +470,22 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>5</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>5</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>30</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>5</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="8">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="9">
                   <c:v>20</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>30</c:v>
                 </c:pt>
                 <c:pt idx="10">
                   <c:v>15</c:v>
@@ -507,11 +507,11 @@
         </c:dLbls>
         <c:gapWidth val="150"/>
         <c:overlap val="100"/>
-        <c:axId val="75257344"/>
-        <c:axId val="75258880"/>
+        <c:axId val="72062848"/>
+        <c:axId val="72064384"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="75257344"/>
+        <c:axId val="72062848"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -520,7 +520,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="75258880"/>
+        <c:crossAx val="72064384"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -528,7 +528,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="75258880"/>
+        <c:axId val="72064384"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -539,7 +539,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="75257344"/>
+        <c:crossAx val="72062848"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -896,8 +896,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D17"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="40" zoomScaleNormal="40" workbookViewId="0">
-      <selection activeCell="I13" sqref="I13"/>
+    <sheetView tabSelected="1" topLeftCell="A19" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -983,10 +983,10 @@
         <v>41315</v>
       </c>
       <c r="C6">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="D6">
-        <v>5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
@@ -997,10 +997,10 @@
         <v>41330</v>
       </c>
       <c r="C7">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="D7">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
@@ -1011,10 +1011,10 @@
         <v>41333</v>
       </c>
       <c r="C8">
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="D8">
-        <v>30</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
@@ -1025,10 +1025,10 @@
         <v>41333</v>
       </c>
       <c r="C9">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="D9">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
@@ -1039,10 +1039,10 @@
         <v>41333</v>
       </c>
       <c r="C10" s="2">
+        <v>20</v>
+      </c>
+      <c r="D10">
         <v>10</v>
-      </c>
-      <c r="D10">
-        <v>20</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
@@ -1053,10 +1053,10 @@
         <v>41358</v>
       </c>
       <c r="C11">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="D11">
-        <v>30</v>
+        <v>20</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
